--- a/docs/assets/StateActorMatrix.xlsx
+++ b/docs/assets/StateActorMatrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk\Dropbox\CHVote Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk\Dropbox\dev\CHVoteDemonstrator\demonstrator\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,50 +280,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,25 +638,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -669,132 +669,132 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
